--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\RetoAlkomprar\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D9A265-B889-4F43-96AE-7D17BF071B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF8E9F-0CF5-453D-B836-EDA977A06E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credenciales" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>3224576648</t>
   </si>
   <si>
-    <t>gw2xy64v2c@myinfoinc.com</t>
+    <t>49b8jiqacq@zipcatfish.com</t>
   </si>
 </sst>
 </file>
@@ -399,13 +399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F85070-9115-4419-A8BE-3D57E35B8787}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
